--- a/June_Event/Porewaters/pw_raw_npoc_tn_data/20220629_Readme_NPOC_TN_COMPASS_TEMPEST_PW_MONTHLY_n69.xlsx
+++ b/June_Event/Porewaters/pw_raw_npoc_tn_data/20220629_Readme_NPOC_TN_COMPASS_TEMPEST_PW_MONTHLY_n69.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25524"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myer056/OneDrive - PNNL/Documents/GitHub/TEMPEST/June_Event/Porewaters/pw_raw_npoc_tn_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oten406/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAC1401-2AFF-3B43-A3AA-83C6CF43304C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{BD6EF9B9-E56E-D748-A766-32E3577F6896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F30450E3-E745-4945-9199-DCD2CA2DEE64}"/>
   <bookViews>
-    <workbookView xWindow="31940" yWindow="4540" windowWidth="27660" windowHeight="15580" xr2:uid="{414E37C4-6C0F-AA42-8BD9-6BC73138264E}"/>
+    <workbookView xWindow="32400" yWindow="2800" windowWidth="27660" windowHeight="15580" xr2:uid="{414E37C4-6C0F-AA42-8BD9-6BC73138264E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Dilution sheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="120">
   <si>
     <t>Sample Name</t>
   </si>
@@ -50,9 +50,18 @@
     <t>Notes</t>
   </si>
   <si>
+    <t>Sample wt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total vol: </t>
+  </si>
+  <si>
     <t>CondBlank1</t>
   </si>
   <si>
+    <t>General Notes: This run went bad and was stopped half-way though. Many samples only using 1 peak. Ran on Shimadzu TOC-L MCRL rm 130.</t>
+  </si>
+  <si>
     <t>CondBlank2</t>
   </si>
   <si>
@@ -62,60 +71,312 @@
     <t>STD_0-50ppmNPOC</t>
   </si>
   <si>
+    <t>1, 2, 3, 4, 5, 6, 7, 8, 9</t>
+  </si>
+  <si>
+    <t>slope: 4.421, int: 0.1377, r^2: 0.9999. *excluded cal level 4 (1ppm), 7 (10ppm), and 9 (50ppm) as they had no peaks</t>
+  </si>
+  <si>
     <t>STD_0-3ppmTN</t>
   </si>
   <si>
+    <t>10, 11, 12, 13, 14, 15, 16</t>
+  </si>
+  <si>
+    <t>slope: 6.447, int: 0.1716, r^2: 0.9997. *excluded cal level 4 (1ppm), and 7 (3ppm) as they had no peaks</t>
+  </si>
+  <si>
     <t>Blank1</t>
   </si>
   <si>
+    <t>NPOC: 0.1309, TN: 0.1972</t>
+  </si>
+  <si>
     <t>CKSTD1_1ppmCN</t>
   </si>
   <si>
+    <t>NPOC: 1.074, TN: 0.9985</t>
+  </si>
+  <si>
+    <t>TMP_C_PW_DOC_H6_15cm_20220615</t>
+  </si>
+  <si>
+    <t>TMP_C_SW_DOC_F6_15cm_20220615</t>
+  </si>
+  <si>
+    <t>TMP_FW_PW_DOC_H3_15cm_20220615_Diluted</t>
+  </si>
+  <si>
+    <t>TMP_C_PW_DOC_H3_15cm_20220615</t>
+  </si>
+  <si>
+    <t>TMP_SW_PW_DOC_C6_15cm_20220615</t>
+  </si>
+  <si>
+    <t>TMP_FW_H6_T0_DOC</t>
+  </si>
+  <si>
+    <t>TMP_FW_C6_T0_DOC</t>
+  </si>
+  <si>
+    <t>TMP_FW_I5_T0_DOC</t>
+  </si>
+  <si>
+    <t>TMP_C_POOLED_PreW_DOC</t>
+  </si>
+  <si>
+    <t>TMP_FW_SOURCE_HR0_DOC</t>
+  </si>
+  <si>
+    <t>Tiny N peaks</t>
+  </si>
+  <si>
     <t>Blank2</t>
   </si>
   <si>
+    <t>NPOC: 0.1743, TN: -0.01963</t>
+  </si>
+  <si>
     <t>CKSTD2_1ppmCN</t>
   </si>
   <si>
+    <t>NPOC: 1.136, TN: 1.047</t>
+  </si>
+  <si>
+    <t>TMP_FW_SOURCE_HR5_DOC</t>
+  </si>
+  <si>
+    <t>TMP_SW_SOURCE_HR6_DOC</t>
+  </si>
+  <si>
+    <t>TMP_SW_SOURCE_HR5_DOC</t>
+  </si>
+  <si>
+    <t>TMP_FW_SOURCE_HR4_DOC</t>
+  </si>
+  <si>
+    <t>Omit</t>
+  </si>
+  <si>
+    <t>Tiny N peaks, re-ran 20220715</t>
+  </si>
+  <si>
+    <t>TMP_ESTUARY_BARGE_HR8_DOC</t>
+  </si>
+  <si>
+    <t>NO PEAKS, re-ran 20220715</t>
+  </si>
+  <si>
+    <t>TMP_FW_SOURCE_HR6_DOC</t>
+  </si>
+  <si>
+    <t>TMP_SW_C3_T1_DOC</t>
+  </si>
+  <si>
+    <t>TMP_SW_WELL_T1_DOC</t>
+  </si>
+  <si>
+    <t>TMP_SW_H6_T1_DOC</t>
+  </si>
+  <si>
+    <t>TMP_SW_B4_T1_DOC</t>
+  </si>
+  <si>
     <t>Blank3</t>
   </si>
   <si>
+    <t>NPOC: 0.1848, TN: 0.02699</t>
+  </si>
+  <si>
     <t>CKSTD3_1ppmCN</t>
   </si>
   <si>
+    <t>NPOC: 1.043, TN: 0.9825</t>
+  </si>
+  <si>
+    <t>TMP_FW_F4_T1_DOC</t>
+  </si>
+  <si>
+    <t>NOT RUN</t>
+  </si>
+  <si>
+    <t>TMP_FW_H6_T1_DOC</t>
+  </si>
+  <si>
+    <t>TMP_SW_F6_T1_DOC</t>
+  </si>
+  <si>
+    <t>TMP_SW_E3_T1_DOC</t>
+  </si>
+  <si>
+    <t>TMP_FW_I5_T1_DOC</t>
+  </si>
+  <si>
+    <t>TMP_FW_B4_T1_DOC</t>
+  </si>
+  <si>
+    <t>TMP_FW_E3_T1_DOC</t>
+  </si>
+  <si>
+    <t>TMP_FW_C6_T1_DOC</t>
+  </si>
+  <si>
+    <t>TMP_FW_C3_T1_DOC</t>
+  </si>
+  <si>
+    <t>TMP_FW_WELL_T1_DOC</t>
+  </si>
+  <si>
     <t>Blank4</t>
   </si>
   <si>
     <t>CKSTD4_1ppmCN</t>
   </si>
   <si>
+    <t>TMP_FW_H3_T1_DOC</t>
+  </si>
+  <si>
+    <t>TMP_FW_D5_T1_DOC</t>
+  </si>
+  <si>
+    <t>TMP_FW_F6_T1_DOC</t>
+  </si>
+  <si>
+    <t>TMP_SW_WELL_T2_DOC</t>
+  </si>
+  <si>
+    <t>TMP_FW_H3_T2_DOC</t>
+  </si>
+  <si>
+    <t>TMP_FW_F6_T2_DOC_Diluted</t>
+  </si>
+  <si>
+    <t>TMP_FW_C6_T2_DOC</t>
+  </si>
+  <si>
+    <t>TMP_C_POOLED_T2_DOC</t>
+  </si>
+  <si>
+    <t>TMP_FW_F4_T2_DOC</t>
+  </si>
+  <si>
+    <t>TMP_FW_E3_T2_DOC</t>
+  </si>
+  <si>
     <t>Blank5</t>
   </si>
   <si>
     <t>CKSTD5_1ppmCN</t>
   </si>
   <si>
+    <t>TMP_FW_H6_T2_DOC_Diluted</t>
+  </si>
+  <si>
+    <t>TMP_SW_POOLED_T2_DOC</t>
+  </si>
+  <si>
+    <t>TMP_FW_C3_T2_DOC</t>
+  </si>
+  <si>
+    <t>TMP_FW_I5_T2_DOC</t>
+  </si>
+  <si>
+    <t>TMP_FW_POOLED_T2_DOC</t>
+  </si>
+  <si>
+    <t>TMP_SW_B4_T2_DOC</t>
+  </si>
+  <si>
+    <t>TMP_SW_I5_T2_DOC</t>
+  </si>
+  <si>
+    <t>TMP_SW_D5_T2_DOC</t>
+  </si>
+  <si>
+    <t>TMP_SW_F6_T2_DOC</t>
+  </si>
+  <si>
+    <t>TMP_FW_D5_T2_DOC</t>
+  </si>
+  <si>
     <t>Blank6</t>
   </si>
   <si>
     <t>CKSTD6_1ppmCN</t>
   </si>
   <si>
+    <t>TMP_SW_F4_T2_DOC</t>
+  </si>
+  <si>
+    <t>TMP_FW_WELL_T2_DOC</t>
+  </si>
+  <si>
+    <t>TMP_SW_H3_T2_DOC</t>
+  </si>
+  <si>
+    <t>TMP_SW_E3_T2_DOC</t>
+  </si>
+  <si>
+    <t>TMP_FW_B4_T2_DOC</t>
+  </si>
+  <si>
+    <t>TMP_SW_H6_T2_DOC</t>
+  </si>
+  <si>
+    <t>TMP_SW_C3_T2_DOC</t>
+  </si>
+  <si>
+    <t>MSM_UP_PW_MonMon_DOC_20220607_LysA_20cm</t>
+  </si>
+  <si>
+    <t>MSM_WC_PW_MonMon_DOC_20220607_SipC_45cm</t>
+  </si>
+  <si>
+    <t>MSM_UP_PW_MonMon_DOC_20220607_LysA_10cm</t>
+  </si>
+  <si>
     <t>Blank7</t>
   </si>
   <si>
     <t>CKSTD7_1ppmCN</t>
   </si>
   <si>
-    <t>1, 2, 3, 4, 5, 6, 7, 8, 9</t>
+    <t>MSM_UP_PW_MonMon_DOC_20220607_LysC_20cm</t>
+  </si>
+  <si>
+    <t>TMP_FW_F6_T3_DOC</t>
+  </si>
+  <si>
+    <t>TMP_FW_I5_T3_DOC</t>
+  </si>
+  <si>
+    <t>TMP_C_C6_T3_DOC</t>
+  </si>
+  <si>
+    <t>TMP_FW_D5_T3_DOC</t>
+  </si>
+  <si>
+    <t>TMP_FW_POOLED_T3_DOC</t>
+  </si>
+  <si>
+    <t>MSM_TR_PW_MonMon_LysB_20</t>
+  </si>
+  <si>
+    <t>MSM_TR_PW_MonMon_LysA_20</t>
+  </si>
+  <si>
+    <t>MSM_WC_PW_MonMon_SipC_20</t>
+  </si>
+  <si>
+    <t>Blank8</t>
+  </si>
+  <si>
+    <t>CKSTD8_1ppmCN</t>
   </si>
   <si>
     <t>Sample</t>
   </si>
   <si>
-    <t>SW_Pool_T2</t>
-  </si>
-  <si>
     <t>Vial wt (g)</t>
   </si>
   <si>
@@ -128,287 +389,20 @@
     <t>DI added (mL)</t>
   </si>
   <si>
+    <t>Total vol (mL)</t>
+  </si>
+  <si>
     <t>Vial wt after addition (g)</t>
   </si>
   <si>
-    <t>FW_B4_T2</t>
-  </si>
-  <si>
-    <t>FW_F6_T3</t>
-  </si>
-  <si>
     <t>*two different glass thickness-&gt; explains differing vial wts</t>
-  </si>
-  <si>
-    <t>FW_I5_T3</t>
-  </si>
-  <si>
-    <t>FW_D5_T3</t>
-  </si>
-  <si>
-    <t>FW_SOURCE_HR2</t>
-  </si>
-  <si>
-    <t>SW_SOURCE_HR3</t>
-  </si>
-  <si>
-    <t>SW_H6_T2</t>
-  </si>
-  <si>
-    <t>FW_D5_T2</t>
-  </si>
-  <si>
-    <t>FW_POOL_T2</t>
-  </si>
-  <si>
-    <t>FW_E3_T1</t>
-  </si>
-  <si>
-    <t>SW_F6_T1</t>
-  </si>
-  <si>
-    <t>SW_SOURCE_HR5</t>
-  </si>
-  <si>
-    <t>Total vol (mL)</t>
-  </si>
-  <si>
-    <t>Sample wt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total vol: </t>
-  </si>
-  <si>
-    <t>TMP_C_PW_DOC_H6_15cm_20220615</t>
-  </si>
-  <si>
-    <t>TMP_C_SW_DOC_F6_15cm_20220615</t>
-  </si>
-  <si>
-    <t>TMP_FW_PW_DOC_H3_15cm_20220615_Diluted</t>
-  </si>
-  <si>
-    <t>TMP_C_PW_DOC_H3_15cm_20220615</t>
-  </si>
-  <si>
-    <t>TMP_SW_PW_DOC_C6_15cm_20220615</t>
-  </si>
-  <si>
-    <t>TMP_FW_H6_T0_DOC</t>
-  </si>
-  <si>
-    <t>TMP_FW_C6_T0_DOC</t>
-  </si>
-  <si>
-    <t>TMP_FW_I5_T0_DOC</t>
-  </si>
-  <si>
-    <t>TMP_C_POOLED_PreW_DOC</t>
-  </si>
-  <si>
-    <t>TMP_FW_SOURCE_HR0_DOC</t>
-  </si>
-  <si>
-    <t>TMP_FW_SOURCE_HR5_DOC</t>
-  </si>
-  <si>
-    <t>TMP_SW_SOURCE_HR6_DOC</t>
-  </si>
-  <si>
-    <t>TMP_SW_SOURCE_HR5_DOC</t>
-  </si>
-  <si>
-    <t>TMP_FW_SOURCE_HR4_DOC</t>
-  </si>
-  <si>
-    <t>TMP_ESTUARY_BARGE_HR8_DOC</t>
-  </si>
-  <si>
-    <t>TMP_FW_SOURCE_HR6_DOC</t>
-  </si>
-  <si>
-    <t>TMP_SW_C3_T1_DOC</t>
-  </si>
-  <si>
-    <t>TMP_SW_WELL_T1_DOC</t>
-  </si>
-  <si>
-    <t>TMP_SW_H6_T1_DOC</t>
-  </si>
-  <si>
-    <t>TMP_SW_B4_T1_DOC</t>
-  </si>
-  <si>
-    <t>TMP_FW_F4_T1_DOC</t>
-  </si>
-  <si>
-    <t>TMP_FW_H6_T1_DOC</t>
-  </si>
-  <si>
-    <t>TMP_SW_F6_T1_DOC</t>
-  </si>
-  <si>
-    <t>TMP_SW_E3_T1_DOC</t>
-  </si>
-  <si>
-    <t>TMP_FW_I5_T1_DOC</t>
-  </si>
-  <si>
-    <t>TMP_FW_B4_T1_DOC</t>
-  </si>
-  <si>
-    <t>TMP_FW_E3_T1_DOC</t>
-  </si>
-  <si>
-    <t>TMP_FW_C6_T1_DOC</t>
-  </si>
-  <si>
-    <t>TMP_FW_C3_T1_DOC</t>
-  </si>
-  <si>
-    <t>TMP_FW_WELL_T1_DOC</t>
-  </si>
-  <si>
-    <t>TMP_FW_H3_T1_DOC</t>
-  </si>
-  <si>
-    <t>TMP_FW_D5_T1_DOC</t>
-  </si>
-  <si>
-    <t>TMP_FW_F6_T1_DOC</t>
-  </si>
-  <si>
-    <t>TMP_SW_WELL_T2_DOC</t>
-  </si>
-  <si>
-    <t>TMP_FW_H3_T2_DOC</t>
-  </si>
-  <si>
-    <t>TMP_FW_F6_T2_DOC_Diluted</t>
-  </si>
-  <si>
-    <t>TMP_FW_C6_T2_DOC</t>
-  </si>
-  <si>
-    <t>TMP_C_POOLED_T2_DOC</t>
-  </si>
-  <si>
-    <t>TMP_FW_F4_T2_DOC</t>
-  </si>
-  <si>
-    <t>TMP_FW_E3_T2_DOC</t>
-  </si>
-  <si>
-    <t>TMP_FW_H6_T2_DOC_Diluted</t>
-  </si>
-  <si>
-    <t>TMP_SW_POOLED_T2_DOC</t>
-  </si>
-  <si>
-    <t>TMP_FW_C3_T2_DOC</t>
-  </si>
-  <si>
-    <t>TMP_FW_I5_T2_DOC</t>
-  </si>
-  <si>
-    <t>TMP_FW_POOLED_T2_DOC</t>
-  </si>
-  <si>
-    <t>TMP_SW_B4_T2_DOC</t>
-  </si>
-  <si>
-    <t>TMP_SW_I5_T2_DOC</t>
-  </si>
-  <si>
-    <t>TMP_SW_D5_T2_DOC</t>
-  </si>
-  <si>
-    <t>TMP_SW_F6_T2_DOC</t>
-  </si>
-  <si>
-    <t>TMP_FW_D5_T2_DOC</t>
-  </si>
-  <si>
-    <t>TMP_SW_F4_T2_DOC</t>
-  </si>
-  <si>
-    <t>TMP_FW_WELL_T2_DOC</t>
-  </si>
-  <si>
-    <t>TMP_SW_H3_T2_DOC</t>
-  </si>
-  <si>
-    <t>TMP_SW_E3_T2_DOC</t>
-  </si>
-  <si>
-    <t>TMP_FW_B4_T2_DOC</t>
-  </si>
-  <si>
-    <t>TMP_SW_H6_T2_DOC</t>
-  </si>
-  <si>
-    <t>TMP_SW_C3_T2_DOC</t>
-  </si>
-  <si>
-    <t>MSM_UP_PW_MonMon_DOC_20220607_LysA_20cm</t>
-  </si>
-  <si>
-    <t>MSM_WC_PW_MonMon_DOC_20220607_SipC_45cm</t>
-  </si>
-  <si>
-    <t>MSM_UP_PW_MonMon_DOC_20220607_LysA_10cm</t>
-  </si>
-  <si>
-    <t>MSM_UP_PW_MonMon_DOC_20220607_LysC_20cm</t>
-  </si>
-  <si>
-    <t>TMP_FW_F6_T3_DOC</t>
-  </si>
-  <si>
-    <t>TMP_FW_I5_T3_DOC</t>
-  </si>
-  <si>
-    <t>TMP_C_C6_T3_DOC</t>
-  </si>
-  <si>
-    <t>TMP_FW_D5_T3_DOC</t>
-  </si>
-  <si>
-    <t>TMP_FW_POOLED_T3_DOC</t>
-  </si>
-  <si>
-    <t>MSM_TR_PW_MonMon_LysB_20</t>
-  </si>
-  <si>
-    <t>MSM_TR_PW_MonMon_LysA_20</t>
-  </si>
-  <si>
-    <t>MSM_WC_PW_MonMon_SipC_20</t>
-  </si>
-  <si>
-    <t>Blank8</t>
-  </si>
-  <si>
-    <t>CKSTD8_1ppmCN</t>
-  </si>
-  <si>
-    <t>10, 11, 12, 13, 14, 15, 16</t>
-  </si>
-  <si>
-    <t>General Notes: This run went bad and was stopped half-way though. Many samples only using 1 peak.</t>
-  </si>
-  <si>
-    <t>Omit</t>
-  </si>
-  <si>
-    <t>NOT RUN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -773,19 +767,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AEBD17-6CC0-ED44-B8EB-00F06462890B}">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
-    <col min="4" max="4" width="61.1640625" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="4" max="4" width="61.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -799,1102 +793,1147 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>19</v>
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>20</v>
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>21</v>
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>22</v>
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>23</v>
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>24</v>
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>25</v>
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>26</v>
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>27</v>
       </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>28</v>
       </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B21">
         <v>29</v>
       </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B22">
         <v>30</v>
       </c>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B23">
         <v>31</v>
       </c>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B24">
         <v>32</v>
       </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B25">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B26">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B27">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B28">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B29">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B30">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B32">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B33">
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B34">
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B35">
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B36">
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B37">
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B38">
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B39">
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B40">
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B41">
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B42">
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D42" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D43" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B44">
         <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B45">
         <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B46">
         <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B47">
         <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B48">
         <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D48" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B49">
         <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D49" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B50">
         <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D50" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B51">
         <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D51" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B52">
         <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D52" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B53">
         <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D53" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B54">
         <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D54" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D55" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="B56">
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D56" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B57">
         <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D57" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B58">
         <v>63</v>
       </c>
       <c r="C58" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D58" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B59">
         <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D59" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B60">
         <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D60" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B61">
         <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D61" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B62">
         <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D62" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B63">
         <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D63" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B64">
         <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D64" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B65">
         <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D65" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B66">
         <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D66" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D67" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="B68">
         <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D68" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B69">
         <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D69" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B70">
         <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D70" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B71">
         <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D71" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B72">
         <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D72" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B73">
         <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D73" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B74">
         <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D74" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B75">
         <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D75" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B76">
         <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D76" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B77">
         <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D77" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B78">
         <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D78" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D79" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="B80">
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D80" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B81">
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D81" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B82">
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D82" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B83">
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D83" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B84">
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D84" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B85">
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D85" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B86">
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D86" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B87">
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D87" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B88">
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B89">
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D89" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D90" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B91">
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D91" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1907,355 +1946,108 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2">
-        <v>8.7934000000000001</v>
-      </c>
-      <c r="C2">
-        <v>9.2637</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.4703</v>
-      </c>
-      <c r="E2">
-        <v>6.53</v>
-      </c>
-      <c r="F2" s="3">
-        <f>D2+E2</f>
-        <v>7.0003000000000002</v>
-      </c>
-      <c r="G2">
-        <v>15.7509</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3">
-        <v>8.6166</v>
-      </c>
-      <c r="C3">
-        <v>8.9382999999999999</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.32169999999999999</v>
-      </c>
-      <c r="E3">
-        <v>6.68</v>
-      </c>
-      <c r="F3" s="3">
-        <f t="shared" ref="F3:F14" si="0">D3+E3</f>
-        <v>7.0016999999999996</v>
-      </c>
-      <c r="G3">
-        <v>15.600300000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4">
-        <v>5.2081</v>
-      </c>
-      <c r="C4">
-        <v>5.3594999999999997</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.15140000000000001</v>
-      </c>
-      <c r="E4">
-        <v>6.85</v>
-      </c>
-      <c r="F4" s="3">
-        <f t="shared" si="0"/>
-        <v>7.0013999999999994</v>
-      </c>
-      <c r="G4">
-        <v>12.1884</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5">
-        <v>5.2286999999999999</v>
-      </c>
-      <c r="C5">
-        <v>8.6929999999999996</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3.4643000000000002</v>
-      </c>
-      <c r="E5">
-        <v>3.5350000000000001</v>
-      </c>
-      <c r="F5" s="3">
-        <f t="shared" si="0"/>
-        <v>6.9992999999999999</v>
-      </c>
-      <c r="G5">
-        <v>12.228999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6">
-        <v>8.6166</v>
-      </c>
-      <c r="C6">
-        <v>11.522</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2.9054000000000002</v>
-      </c>
-      <c r="E6">
-        <v>4.0949999999999998</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" si="0"/>
-        <v>7.0004</v>
-      </c>
-      <c r="G6">
-        <v>15.619300000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7">
-        <v>5.2403000000000004</v>
-      </c>
-      <c r="C7">
-        <v>8.4842999999999993</v>
-      </c>
-      <c r="D7" s="3">
-        <v>3.2812999999999999</v>
-      </c>
-      <c r="E7">
-        <v>3.72</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" si="0"/>
-        <v>7.0013000000000005</v>
-      </c>
-      <c r="G7">
-        <v>12.198499999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8">
-        <v>5.1173000000000002</v>
-      </c>
-      <c r="C8">
-        <v>8.7607999999999997</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3.6435</v>
-      </c>
-      <c r="E8">
-        <v>3.355</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>6.9984999999999999</v>
-      </c>
-      <c r="G8">
-        <v>12.106199999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9">
-        <v>8.6455000000000002</v>
-      </c>
-      <c r="C9">
-        <v>8.9623000000000008</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.31680000000000003</v>
-      </c>
-      <c r="E9">
-        <v>6.6849999999999996</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>7.0017999999999994</v>
-      </c>
-      <c r="G9">
-        <v>15.6387</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10">
-        <v>5.1528999999999998</v>
-      </c>
-      <c r="C10">
-        <v>7.4782999999999999</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2.3254000000000001</v>
-      </c>
-      <c r="E10">
-        <v>4.6749999999999998</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" si="0"/>
-        <v>7.0004</v>
-      </c>
-      <c r="G10">
-        <v>12.1625</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11">
-        <v>8.6674000000000007</v>
-      </c>
-      <c r="C11">
-        <v>11.5433</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2.8759000000000001</v>
-      </c>
-      <c r="E11">
-        <v>4.125</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>7.0008999999999997</v>
-      </c>
-      <c r="G11">
-        <v>15.6427</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12">
-        <v>8.6786999999999992</v>
-      </c>
-      <c r="C12">
-        <v>10.9072</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2.2284999999999999</v>
-      </c>
-      <c r="E12">
-        <v>4.915</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" si="0"/>
-        <v>7.1434999999999995</v>
-      </c>
-      <c r="G12">
-        <v>15.7935</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13">
-        <v>5.1361999999999997</v>
-      </c>
-      <c r="C13">
-        <v>7.2224000000000004</v>
-      </c>
-      <c r="D13" s="3">
-        <v>2.0861999999999998</v>
-      </c>
-      <c r="E13">
-        <v>4.915</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" si="0"/>
-        <v>7.0011999999999999</v>
-      </c>
-      <c r="G13">
-        <v>12.0922</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14">
-        <v>8.8002000000000002</v>
-      </c>
-      <c r="C14">
-        <v>11.788399999999999</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2.9882</v>
-      </c>
-      <c r="E14">
-        <v>4.01</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="0"/>
-        <v>6.9981999999999998</v>
-      </c>
-      <c r="G14">
-        <v>15.769500000000001</v>
-      </c>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2442,27 +2234,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D4F60B5-3874-4179-8D73-4352AEBE626B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D4F60B5-3874-4179-8D73-4352AEBE626B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A701949D-1257-47EA-88EF-D14148793769}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="da8c28ad-5ac5-4047-b08a-f75bc24d91a9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A701949D-1257-47EA-88EF-D14148793769}"/>
 </file>
--- a/June_Event/Porewaters/pw_raw_npoc_tn_data/20220629_Readme_NPOC_TN_COMPASS_TEMPEST_PW_MONTHLY_n69.xlsx
+++ b/June_Event/Porewaters/pw_raw_npoc_tn_data/20220629_Readme_NPOC_TN_COMPASS_TEMPEST_PW_MONTHLY_n69.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25524"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oten406/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/opal_otenburg_pnnl_gov/Documents/Documents/GitHub/TEMPEST/June_Event/Porewaters/pw_raw_npoc_tn_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{BD6EF9B9-E56E-D748-A766-32E3577F6896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F30450E3-E745-4945-9199-DCD2CA2DEE64}"/>
   <bookViews>
-    <workbookView xWindow="32400" yWindow="2800" windowWidth="27660" windowHeight="15580" xr2:uid="{414E37C4-6C0F-AA42-8BD9-6BC73138264E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{414E37C4-6C0F-AA42-8BD9-6BC73138264E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -767,19 +767,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AEBD17-6CC0-ED44-B8EB-00F06462890B}">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="24.125" customWidth="1"/>
-    <col min="4" max="4" width="61.125" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="61.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -799,7 +799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -810,7 +810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -837,7 +837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -848,7 +848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -859,7 +859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -870,7 +870,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -878,7 +878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -887,7 +887,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -896,7 +896,7 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -905,7 +905,7 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -914,7 +914,7 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -923,7 +923,7 @@
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -932,7 +932,7 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -941,7 +941,7 @@
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -950,7 +950,7 @@
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -962,7 +962,7 @@
       </c>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -974,7 +974,7 @@
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -986,7 +986,7 @@
       </c>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -998,7 +998,7 @@
       </c>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>60</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>66</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>68</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>69</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>71</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>72</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>73</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>74</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>75</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>78</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>79</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>80</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>81</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>82</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>83</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>84</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>85</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>86</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>87</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>88</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>89</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>90</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>91</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>92</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>93</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>94</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>95</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>96</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>97</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>98</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>99</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>100</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>101</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>102</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>103</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>104</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>105</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>106</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>107</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>108</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>109</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>110</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>111</v>
       </c>
@@ -1949,16 +1949,16 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="21.625" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>112</v>
       </c>
@@ -1984,67 +1984,67 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="D2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="D3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="D4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="D5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="D6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="D7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="D8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="D9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="D10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="D11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="D12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="D13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="D14" s="3"/>
       <c r="F14" s="3"/>
@@ -2055,15 +2055,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007324DF9BA5F6B948938C142504C8F34F" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c4aadcd1f2a12dc9b07f6546b5e76248">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="da8c28ad-5ac5-4047-b08a-f75bc24d91a9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6457694f174ba676422feeebbff24cf4" ns2:_="">
     <xsd:import namespace="da8c28ad-5ac5-4047-b08a-f75bc24d91a9"/>
@@ -2233,10 +2224,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D4F60B5-3874-4179-8D73-4352AEBE626B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A701949D-1257-47EA-88EF-D14148793769}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="da8c28ad-5ac5-4047-b08a-f75bc24d91a9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A701949D-1257-47EA-88EF-D14148793769}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D4F60B5-3874-4179-8D73-4352AEBE626B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/June_Event/Porewaters/pw_raw_npoc_tn_data/20220629_Readme_NPOC_TN_COMPASS_TEMPEST_PW_MONTHLY_n69.xlsx
+++ b/June_Event/Porewaters/pw_raw_npoc_tn_data/20220629_Readme_NPOC_TN_COMPASS_TEMPEST_PW_MONTHLY_n69.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/opal_otenburg_pnnl_gov/Documents/Documents/GitHub/TEMPEST/June_Event/Porewaters/pw_raw_npoc_tn_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{BD6EF9B9-E56E-D748-A766-32E3577F6896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F30450E3-E745-4945-9199-DCD2CA2DEE64}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{BD6EF9B9-E56E-D748-A766-32E3577F6896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B356269-2AA1-E149-9E05-9B9EA4C4BDE6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{414E37C4-6C0F-AA42-8BD9-6BC73138264E}"/>
+    <workbookView xWindow="0" yWindow="3280" windowWidth="28800" windowHeight="16500" xr2:uid="{414E37C4-6C0F-AA42-8BD9-6BC73138264E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="121">
   <si>
     <t>Sample Name</t>
   </si>
@@ -146,9 +146,6 @@
     <t>TMP_FW_SOURCE_HR5_DOC</t>
   </si>
   <si>
-    <t>TMP_SW_SOURCE_HR6_DOC</t>
-  </si>
-  <si>
     <t>TMP_SW_SOURCE_HR5_DOC</t>
   </si>
   <si>
@@ -396,6 +393,12 @@
   </si>
   <si>
     <t>*two different glass thickness-&gt; explains differing vial wts</t>
+  </si>
+  <si>
+    <t>TMP_SW_SOURCE_HR7_DOC</t>
+  </si>
+  <si>
+    <t>only 1 peak- re-ran to get more peaks</t>
   </si>
 </sst>
 </file>
@@ -767,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AEBD17-6CC0-ED44-B8EB-00F06462890B}">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1000,54 +1003,66 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="B22">
         <v>30</v>
       </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>120</v>
+      </c>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>31</v>
       </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
+      </c>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24">
         <v>32</v>
       </c>
       <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
         <v>39</v>
-      </c>
-      <c r="D24" t="s">
-        <v>40</v>
       </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25">
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26">
         <v>34</v>
@@ -1058,7 +1073,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27">
         <v>35</v>
@@ -1066,7 +1081,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28">
         <v>36</v>
@@ -1074,7 +1089,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29">
         <v>37</v>
@@ -1082,7 +1097,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30">
         <v>38</v>
@@ -1090,850 +1105,850 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32">
         <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33">
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34">
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35">
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36">
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37">
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38">
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B39">
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40">
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41">
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B42">
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B44">
         <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B45">
         <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B46">
         <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B47">
         <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B48">
         <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B49">
         <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B50">
         <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B51">
         <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B52">
         <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B53">
         <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B54">
         <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B56">
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B57">
         <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B58">
         <v>63</v>
       </c>
       <c r="C58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B59">
         <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B60">
         <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B61">
         <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B62">
         <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B63">
         <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B64">
         <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B65">
         <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B66">
         <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B68">
         <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B69">
         <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B70">
         <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B71">
         <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B72">
         <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B73">
         <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B74">
         <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B75">
         <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B76">
         <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B77">
         <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D77" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B78">
         <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B80">
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B81">
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B82">
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B83">
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B84">
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B85">
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B86">
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D86" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B87">
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B88">
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D88" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B89">
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D89" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D90" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B91">
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D91" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1960,28 +1975,28 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" t="s">
         <v>118</v>
-      </c>
-      <c r="J1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2055,6 +2070,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007324DF9BA5F6B948938C142504C8F34F" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c4aadcd1f2a12dc9b07f6546b5e76248">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="da8c28ad-5ac5-4047-b08a-f75bc24d91a9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6457694f174ba676422feeebbff24cf4" ns2:_="">
     <xsd:import namespace="da8c28ad-5ac5-4047-b08a-f75bc24d91a9"/>
@@ -2224,16 +2248,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D4F60B5-3874-4179-8D73-4352AEBE626B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A701949D-1257-47EA-88EF-D14148793769}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2249,12 +2272,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D4F60B5-3874-4179-8D73-4352AEBE626B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>